--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1835.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1835.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.30805200022683</v>
+        <v>0.3804768025875092</v>
       </c>
       <c r="B1">
-        <v>1.453909730692168</v>
+        <v>3.055658578872681</v>
       </c>
       <c r="C1">
-        <v>1.517013100574034</v>
+        <v>4.62161922454834</v>
       </c>
       <c r="D1">
-        <v>1.738917819235282</v>
+        <v>1.797758817672729</v>
       </c>
       <c r="E1">
-        <v>2.173806227236965</v>
+        <v>0.8158201575279236</v>
       </c>
     </row>
   </sheetData>
